--- a/homework1/Public Transport.xlsx
+++ b/homework1/Public Transport.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,14 +343,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="5:5">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/homework1/Public Transport.xlsx
+++ b/homework1/Public Transport.xlsx
@@ -15,9 +15,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+  <si>
+    <t>Автобусы</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Кондуктор</t>
+  </si>
+  <si>
+    <t>Маршрут</t>
+  </si>
+  <si>
+    <t>id_маршрута</t>
+  </si>
+  <si>
+    <t>id_Водителя</t>
+  </si>
+  <si>
+    <t>id_Маршрута</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Рег. № автобуса</t>
+  </si>
+  <si>
+    <t>id_водителя</t>
+  </si>
+  <si>
+    <t>id_рег. № автобуса</t>
+  </si>
+  <si>
+    <t>id_кондуктора</t>
+  </si>
+  <si>
+    <t>АА123А77</t>
+  </si>
+  <si>
+    <t>ББ321Б79</t>
+  </si>
+  <si>
+    <t>ВВ456А777</t>
+  </si>
+  <si>
+    <t>РП284О779</t>
+  </si>
+  <si>
+    <t>УО295Л750</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Иванов И. И.</t>
+  </si>
+  <si>
+    <t>Петров П. П.</t>
+  </si>
+  <si>
+    <t>Иконников А. Н.</t>
+  </si>
+  <si>
+    <t>Васильева В. В.</t>
+  </si>
+  <si>
+    <t>Сидорова А. И.</t>
+  </si>
+  <si>
+    <t>id_Коднуктора</t>
+  </si>
+  <si>
+    <t>Фролова А. М.</t>
+  </si>
+  <si>
+    <t>Ефимова Т. И.</t>
+  </si>
+  <si>
+    <t>Лубенец А. С.</t>
+  </si>
+  <si>
+    <t>Кибрид Р. А.</t>
+  </si>
+  <si>
+    <t>Лунёва Т. С.</t>
+  </si>
+  <si>
+    <t>№ маршрута</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,16 +124,82 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -43,12 +207,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -343,20 +757,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="5:5">
-      <c r="E7">
+    <row r="1" spans="1:10" ht="21" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:10" ht="21" thickTop="1" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16">
+        <v>35</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1</v>
+      </c>
+      <c r="I11" s="32">
+        <v>130</v>
+      </c>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16">
+        <v>28</v>
+      </c>
+      <c r="H12" s="31">
+        <v>2</v>
+      </c>
+      <c r="I12" s="32">
+        <v>260</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16">
+        <v>29</v>
+      </c>
+      <c r="H13" s="31">
+        <v>3</v>
+      </c>
+      <c r="I13" s="32">
+        <v>139</v>
+      </c>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="16">
+        <v>47</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="16">
+        <v>37</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
